--- a/communication.xlsx
+++ b/communication.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Espire Infolabs Pvt. Ltd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Espire Infolabs Pvt. Ltd\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">ACCURATE (Correct/Exact)  Accurate measurement is very important in open text   
 </t>
@@ -45,6 +45,116 @@
     <t xml:space="preserve">5. DILEMMA (Confusion/Suspense) When a child passes his tenth class exam then he is always
  In a dilemma regarding what he should do next
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> evident
+clearly revealed to the mind or the senses or judgment
+That confidence was certainly evident in the way Smith handled the winning play with 14 seconds left on the clock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accord
+concurrence of opinion
+The committee worked in accord on the bill, and it eventually passed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> minute
+infinitely or immeasurably small
+The minute stain on the document was not visible to the naked eye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> consider
+deem to be
+At the moment, artemisinin-based therapies are considered the best treatment, but cost about $10 per dose - far too much for impoverished communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> practice
+a customary way of operation or behavior
+He directed and acted in plays every season and became known for exploring Elizabethan theatre practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> concern
+something that interests you because it is important
+The scandal broke out in October after former chief executive Michael Woodford claimed he was fired for raising concerns about the company's accounting practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commit
+perform an act, usually with a negative connotation
+In an unprecedented front page article in 2003 The Times reported that Mr. Blair, a young reporter on its staff, had committed journalistic fraud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> issue
+some situation or event that is thought about
+As a result, the privacy issues surrounding mobile computing are becoming ever-more complex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> approach
+move towards
+Spain’s jobless rate for people ages 16 to 24 is approaching 50 percent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> establish
+set up or found
+A small French colony, Port Louis, was established on East Falkland in 1764 and handed to the Spanish three years later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> utter
+without qualification
+No one can blame an honest mechanic for holding a wealthy snob in utter contempt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conduct
+direct the course of; manage or control
+Scientists have been conducting studies of individual genes for years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> engage
+consume all of one's attention or time
+We had nearly two hundred passengers, who were seated about on the sofas, reading, or playing games, or engaged in conversation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> obtain
+come into possession of
+He delayed making the unclassified report public while awaiting an Army review, but Rolling Stone magazine obtained the report and posted it Friday night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scarce
+deficient in quantity or number compared with the demand
+Meanwhile, heating oil could grow more scarce in the Northeast this winter, the Energy Department warned last month.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> policy
+a plan of action adopted by an individual or social group
+Inflation has lagged behind the central bank’s 2 percent target, giving policy makers extra scope to cut rates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> straight
+successive, without a break
+After three straight losing seasons, Hoosiers fans were just hoping for a winning record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stock
+capital raised by a corporation through the issue of shares
+In other words, Apple’s stock is cheap, and you should buy it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apparent
+clearly revealed to the mind or the senses or judgment
+But the elderly creak is beginning to become apparent in McCartney’s voice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fancy
+imagine; conceive of; see in one's mind
+For a time, indeed, he had fancied that things were changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> appoint
+assign a duty, responsibility, or obligation to
+In 1863 he was appointed by the general assembly professor of oriental languages at New College.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> passage
+a section of text, particularly a section of medium length
+His interpretation of many obscure scriptural passages by means of native manners and customs and traditions is particularly helpful and informing.</t>
   </si>
 </sst>
 </file>
@@ -365,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,6 +511,116 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
